--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="H2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="I2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="J2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="N2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="O2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="P2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="Q2">
-        <v>40.248435507273</v>
+        <v>97.66285148379045</v>
       </c>
       <c r="R2">
-        <v>362.235919565457</v>
+        <v>878.965663354114</v>
       </c>
       <c r="S2">
-        <v>0.1814406239106331</v>
+        <v>0.2851361657720983</v>
       </c>
       <c r="T2">
-        <v>0.1814406239106331</v>
+        <v>0.2851361657720983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="H3">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="I3">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="J3">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.176051</v>
       </c>
       <c r="O3">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="P3">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="Q3">
-        <v>23.073847989969</v>
+        <v>41.52281511861489</v>
       </c>
       <c r="R3">
-        <v>207.664631909721</v>
+        <v>373.705336067534</v>
       </c>
       <c r="S3">
-        <v>0.1040172946489452</v>
+        <v>0.1212298854181075</v>
       </c>
       <c r="T3">
-        <v>0.1040172946489452</v>
+        <v>0.1212298854181075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="H4">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="I4">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="J4">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="N4">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="O4">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="P4">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="Q4">
-        <v>14.003667384756</v>
+        <v>22.614172976876</v>
       </c>
       <c r="R4">
-        <v>126.033006462804</v>
+        <v>203.527556791884</v>
       </c>
       <c r="S4">
-        <v>0.06312876799566478</v>
+        <v>0.06602427101776406</v>
       </c>
       <c r="T4">
-        <v>0.06312876799566476</v>
+        <v>0.06602427101776406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="H5">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="I5">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="J5">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="N5">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="O5">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="P5">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="Q5">
-        <v>2.633972183955</v>
+        <v>4.511999695932444</v>
       </c>
       <c r="R5">
-        <v>23.705749655595</v>
+        <v>40.607997263392</v>
       </c>
       <c r="S5">
-        <v>0.01187399088676847</v>
+        <v>0.01317322066391419</v>
       </c>
       <c r="T5">
-        <v>0.01187399088676847</v>
+        <v>0.01317322066391419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>26.325559</v>
       </c>
       <c r="I6">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="J6">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="N6">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="O6">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="P6">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="Q6">
-        <v>62.12559015705032</v>
+        <v>83.76916018914876</v>
       </c>
       <c r="R6">
-        <v>559.1303114134529</v>
+        <v>753.922441702339</v>
       </c>
       <c r="S6">
-        <v>0.2800632048635679</v>
+        <v>0.2445721866952348</v>
       </c>
       <c r="T6">
-        <v>0.2800632048635679</v>
+        <v>0.2445721866952348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>26.325559</v>
       </c>
       <c r="I7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="J7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.176051</v>
       </c>
       <c r="O7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="P7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="Q7">
         <v>35.61570544305656</v>
@@ -883,10 +883,10 @@
         <v>320.541348987509</v>
       </c>
       <c r="S7">
-        <v>0.1605561988971668</v>
+        <v>0.1039835058777403</v>
       </c>
       <c r="T7">
-        <v>0.1605561988971668</v>
+        <v>0.1039835058777403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>26.325559</v>
       </c>
       <c r="I8">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="J8">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="N8">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="O8">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="P8">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="Q8">
-        <v>21.61540168396845</v>
+        <v>19.397040429026</v>
       </c>
       <c r="R8">
-        <v>194.538615155716</v>
+        <v>174.573363861234</v>
       </c>
       <c r="S8">
-        <v>0.09744259418256107</v>
+        <v>0.05663154056255281</v>
       </c>
       <c r="T8">
-        <v>0.09744259418256108</v>
+        <v>0.05663154056255282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>26.325559</v>
       </c>
       <c r="I9">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="J9">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="N9">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="O9">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="P9">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="Q9">
-        <v>4.065675456028333</v>
+        <v>3.870114578465777</v>
       </c>
       <c r="R9">
-        <v>36.59107910425499</v>
+        <v>34.831031206192</v>
       </c>
       <c r="S9">
-        <v>0.01832813330661332</v>
+        <v>0.01129917481659428</v>
       </c>
       <c r="T9">
-        <v>0.01832813330661332</v>
+        <v>0.01129917481659428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="H10">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="I10">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="J10">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="N10">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="O10">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="P10">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="Q10">
-        <v>8.989100002470666</v>
+        <v>19.42402813553067</v>
       </c>
       <c r="R10">
-        <v>80.90190002223599</v>
+        <v>174.816253219776</v>
       </c>
       <c r="S10">
-        <v>0.04052301393301679</v>
+        <v>0.05671033378882883</v>
       </c>
       <c r="T10">
-        <v>0.04052301393301679</v>
+        <v>0.05671033378882884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="H11">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="I11">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="J11">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.176051</v>
       </c>
       <c r="O11">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="P11">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="Q11">
-        <v>5.153321474723112</v>
+        <v>8.258414708117332</v>
       </c>
       <c r="R11">
-        <v>46.37989327250801</v>
+        <v>74.325732373056</v>
       </c>
       <c r="S11">
-        <v>0.02323125984404697</v>
+        <v>0.02411124260097311</v>
       </c>
       <c r="T11">
-        <v>0.02323125984404697</v>
+        <v>0.02411124260097312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="H12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="I12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="J12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="N12">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="O12">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="P12">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="Q12">
-        <v>3.12758408957689</v>
+        <v>4.497701280384</v>
       </c>
       <c r="R12">
-        <v>28.14825680619201</v>
+        <v>40.479311523456</v>
       </c>
       <c r="S12">
-        <v>0.0140992016557577</v>
+        <v>0.01313147505313017</v>
       </c>
       <c r="T12">
-        <v>0.0140992016557577</v>
+        <v>0.01313147505313017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="H13">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="I13">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="J13">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="N13">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="O13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="P13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="Q13">
-        <v>0.5882722910066667</v>
+        <v>0.8973853180586665</v>
       </c>
       <c r="R13">
-        <v>5.29445061906</v>
+        <v>8.076467862528</v>
       </c>
       <c r="S13">
-        <v>0.002651941377703975</v>
+        <v>0.002620003460106754</v>
       </c>
       <c r="T13">
-        <v>0.002651941377703975</v>
+        <v>0.002620003460106755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="H14">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="I14">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="J14">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="N14">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="O14">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="P14">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="Q14">
-        <v>0.2951994323366666</v>
+        <v>0.2769589874442223</v>
       </c>
       <c r="R14">
-        <v>2.65679489103</v>
+        <v>2.492630886998</v>
       </c>
       <c r="S14">
-        <v>0.001330764003772293</v>
+        <v>0.0008086086219699969</v>
       </c>
       <c r="T14">
-        <v>0.001330764003772293</v>
+        <v>0.0008086086219699969</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="H15">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="I15">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="J15">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.176051</v>
       </c>
       <c r="O15">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="P15">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="Q15">
-        <v>0.1692335799544445</v>
+        <v>0.1177532363264445</v>
       </c>
       <c r="R15">
-        <v>1.52310221959</v>
+        <v>1.059779126938</v>
       </c>
       <c r="S15">
-        <v>0.0007629078235355456</v>
+        <v>0.0003437919925873847</v>
       </c>
       <c r="T15">
-        <v>0.0007629078235355458</v>
+        <v>0.0003437919925873847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="H16">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="I16">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="J16">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="N16">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="O16">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="P16">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="Q16">
-        <v>0.1027089527955556</v>
+        <v>0.06413081693200001</v>
       </c>
       <c r="R16">
-        <v>0.9243805751600002</v>
+        <v>0.5771773523880001</v>
       </c>
       <c r="S16">
-        <v>0.000463013685912484</v>
+        <v>0.0001872361391256107</v>
       </c>
       <c r="T16">
-        <v>0.000463013685912484</v>
+        <v>0.0001872361391256107</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="H17">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="I17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="J17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="N17">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="O17">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="P17">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="Q17">
-        <v>0.01931869111666666</v>
+        <v>0.01279543703822222</v>
       </c>
       <c r="R17">
-        <v>0.17386822005</v>
+        <v>0.115158933344</v>
       </c>
       <c r="S17">
-        <v>8.708898433359993E-05</v>
+        <v>3.735751927192631E-05</v>
       </c>
       <c r="T17">
-        <v>8.708898433359994E-05</v>
+        <v>3.735751927192631E-05</v>
       </c>
     </row>
   </sheetData>
